--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web-programming-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAEB7C-0EA1-45CD-85DD-1D2E84F12E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ADF354-3200-4D54-A327-31CB969D046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Non-Functional Requirements" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Requirement</t>
   </si>
@@ -256,6 +257,48 @@
   </si>
   <si>
     <t>Medical Doctor Offices can view appointments booked for their office and confirm it</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>The system should be able to handle a large number of users without significant degradation in performance</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>The system should implement robust authentication mechanisms to ensure that only authorized users can access related and permitted sites</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>The system should be highly reliable, with minnimal downtime and robust error handling mechanisms in place to handle any unexpected failures gracefully</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>The user interface should be intuitive and user-friendly, ease of use</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>The system should be highly responsive, with fast loading times for pages and quick processing of user actions</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>The system should be compatible with a wide range of devices and web browsers to ensure that users can access it from various platforms</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>The system should be easy to maintain and update, with well-organized code, follow strictly to MVC model, clear documentation that allows for easy addition of new features or modification.</t>
   </si>
 </sst>
 </file>
@@ -619,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -690,4 +733,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC360F40-2E66-4ED7-9141-AB4AD5587025}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7265625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>